--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fish\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>chengjie</t>
-  </si>
-  <si>
-    <t>penhuo</t>
-  </si>
-  <si>
     <t>火箭</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -103,9 +97,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>dadun</t>
-  </si>
-  <si>
     <t>治疗</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -114,12 +105,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>zhiliao</t>
-  </si>
-  <si>
-    <t>miaozhun</t>
-  </si>
-  <si>
     <t>瞄准射击</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -136,9 +121,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>shibei</t>
-  </si>
-  <si>
     <t>探索</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -147,9 +129,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>yexing2</t>
-  </si>
-  <si>
     <t>背刺</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -158,7 +137,28 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>cisha</t>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
+    <t>skill5</t>
+  </si>
+  <si>
+    <t>skill6</t>
+  </si>
+  <si>
+    <t>skill7</t>
+  </si>
+  <si>
+    <t>skill8</t>
   </si>
 </sst>
 </file>
@@ -833,74 +833,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -935,7 +867,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1217,17 +1149,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1287,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31000001</v>
       </c>
@@ -1304,18 +1236,18 @@
         <v>52100000</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1324,18 +1256,18 @@
         <v>52100001</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1344,18 +1276,18 @@
         <v>53100005</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1364,18 +1296,18 @@
         <v>53100002</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31000005</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1387,15 +1319,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31000006</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1404,18 +1336,18 @@
         <v>53100000</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31000007</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1424,18 +1356,18 @@
         <v>53100001</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31000008</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1444,7 +1376,7 @@
         <v>53100003</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -159,6 +159,17 @@
   </si>
   <si>
     <t>skill8</t>
+  </si>
+  <si>
+    <t>skill9</t>
+  </si>
+  <si>
+    <t>亡灵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个坟墓上召唤一个骷髅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,8 +856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F11" totalsRowShown="0">
-  <autoFilter ref="A1:F11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F12" totalsRowShown="0">
+  <autoFilter ref="A1:F12"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -1146,20 +1157,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>31000001</v>
       </c>
@@ -1239,7 +1250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>31000002</v>
       </c>
@@ -1259,7 +1270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>31000003</v>
       </c>
@@ -1279,7 +1290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>31000004</v>
       </c>
@@ -1299,7 +1310,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>31000005</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>31000006</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>31000007</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>31000008</v>
       </c>
@@ -1377,6 +1388,26 @@
       </c>
       <c r="F11" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>31000009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>53100006</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -169,6 +169,17 @@
   </si>
   <si>
     <t>在一个坟墓上召唤一个骷髅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10</t>
+  </si>
+  <si>
+    <t>图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定位置召唤一个图腾</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -856,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F12" totalsRowShown="0">
-  <autoFilter ref="A1:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -1157,20 +1168,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31000001</v>
       </c>
@@ -1250,7 +1261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31000002</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>31000003</v>
       </c>
@@ -1290,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31000004</v>
       </c>
@@ -1310,7 +1321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31000005</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31000006</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31000007</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31000008</v>
       </c>
@@ -1390,7 +1401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31000009</v>
       </c>
@@ -1408,6 +1419,26 @@
       </c>
       <c r="F12" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31000010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>53100007</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -89,97 +89,97 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>治疗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复一个己方单位生命值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准射击</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个单体目标造成魔法伤害，对英雄造成双倍伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗魔法值来获取一定的怒气值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定概率抽一张牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>背刺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成长时间的流血状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
+  </si>
+  <si>
+    <t>skill4</t>
+  </si>
+  <si>
+    <t>skill5</t>
+  </si>
+  <si>
+    <t>skill6</t>
+  </si>
+  <si>
+    <t>skill7</t>
+  </si>
+  <si>
+    <t>skill8</t>
+  </si>
+  <si>
+    <t>skill9</t>
+  </si>
+  <si>
+    <t>亡灵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一个坟墓上召唤一个骷髅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10</t>
+  </si>
+  <si>
+    <t>图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定位置召唤一个图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>铁盾</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>可以给己方单位装备一面铁盾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复一个己方单位生命值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞄准射击</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一个单体目标造成魔法伤害，对英雄造成双倍伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>转化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗魔法值来获取一定的怒气值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一定概率抽一张牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>背刺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成长时间的流血状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
-  </si>
-  <si>
-    <t>skill3</t>
-  </si>
-  <si>
-    <t>skill4</t>
-  </si>
-  <si>
-    <t>skill5</t>
-  </si>
-  <si>
-    <t>skill6</t>
-  </si>
-  <si>
-    <t>skill7</t>
-  </si>
-  <si>
-    <t>skill8</t>
-  </si>
-  <si>
-    <t>skill9</t>
-  </si>
-  <si>
-    <t>亡灵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在一个坟墓上召唤一个骷髅</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill10</t>
-  </si>
-  <si>
-    <t>图腾</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在指定位置召唤一个图腾</t>
+    <t>使我方王塔获得一些物甲</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
         <v>52100000</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,19 +1266,19 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>52100001</v>
+        <v>53100008</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>53100005</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>31000004</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>53100002</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>31000005</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1338,7 +1338,7 @@
         <v>53100004</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>53100000</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1366,10 +1366,10 @@
         <v>31000007</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1378,7 +1378,7 @@
         <v>53100001</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>31000008</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1398,7 +1398,7 @@
         <v>53100003</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>31000009</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>53100006</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>31000010</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1438,7 +1438,7 @@
         <v>53100007</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -101,10 +101,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对一个单体目标造成魔法伤害，对英雄造成双倍伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>转化</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>使我方王塔获得一些物甲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌王塔造成魔法伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1258,7 @@
         <v>52100000</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>53100008</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,10 +1286,10 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>53100005</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>53100002</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,10 +1326,10 @@
         <v>31000005</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1338,7 +1338,7 @@
         <v>53100004</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>53100000</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>53100001</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>31000008</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1398,7 +1398,7 @@
         <v>53100003</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>31000009</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1418,7 +1418,7 @@
         <v>53100006</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,10 +1426,10 @@
         <v>31000010</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1438,7 +1438,7 @@
         <v>53100007</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -105,10 +105,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>消耗魔法值来获取一定的怒气值</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>探索</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -180,6 +176,10 @@
   </si>
   <si>
     <t>对敌王塔造成魔法伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗MP来获取一定的PP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -669,6 +669,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +815,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1183,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1270,7 @@
         <v>52100000</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,10 +1278,10 @@
         <v>31000002</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1278,7 +1290,7 @@
         <v>53100008</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,10 +1298,10 @@
         <v>31000003</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1298,7 +1310,7 @@
         <v>53100005</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,7 +1321,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1318,27 +1330,27 @@
         <v>53100002</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31000005</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>53100004</v>
+      <c r="E8" s="3">
+        <v>53100003</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1370,7 @@
         <v>53100000</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1378,7 +1390,7 @@
         <v>53100001</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,19 +1398,19 @@
         <v>31000008</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>53100003</v>
+        <v>53100004</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,10 +1418,10 @@
         <v>31000009</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1418,7 +1430,7 @@
         <v>53100006</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,10 +1438,10 @@
         <v>31000010</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1438,7 +1450,7 @@
         <v>53100007</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroSkill.xlsx
+++ b/ConfigData/Xlsx/HeroSkill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +553,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -678,6 +684,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,17 +835,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,8 +908,295 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -879,15 +1209,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="8">
+  <autoFilter ref="A3:F13"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Des"/>
-    <tableColumn id="4" name="Type"/>
-    <tableColumn id="5" name="CardId"/>
-    <tableColumn id="9" name="Icon"/>
+    <tableColumn id="1" name="Id" dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Des" dataDxfId="5"/>
+    <tableColumn id="4" name="Type" dataDxfId="4"/>
+    <tableColumn id="5" name="CardId" dataDxfId="3"/>
+    <tableColumn id="6" name="Icon" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -901,7 +1231,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1183,273 +1513,273 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>31000001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>52100000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>31000002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
+      <c r="E5" s="1">
+        <v>53100008</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>31000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>52100000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>31000003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>53100005</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>31000002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>31000004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>53100008</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+      <c r="E7" s="1">
+        <v>53100002</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>31000003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>31000005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>53100005</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
+      <c r="E8" s="1">
+        <v>53100003</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>31000004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>31000006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>53100002</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
+      <c r="E9" s="1">
+        <v>53100000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>31000005</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>31000007</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="3">
-        <v>53100003</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
+      <c r="E10" s="1">
+        <v>53100001</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>31000006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>31000008</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>53100000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
+      <c r="E11" s="1">
+        <v>53100004</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>31000007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>31000009</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>53100001</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
+      <c r="E12" s="1">
+        <v>53100006</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>31000008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>31000010</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E11">
-        <v>53100004</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>31000009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>53100006</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>31000010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>53100007</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
